--- a/data/Quinchao.xlsx
+++ b/data/Quinchao.xlsx
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmonídeos Isla Llingua, Canal Quinchao-X Región, Cód. Sernapesca 102541 (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmonídeos Este Isla Teuquelin, X Región Nº Pert 200103263 (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Pedro Domingo Martínez Barría</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1260182&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmonídeos Este Isla Teuquelin, X Región Nº Pert 200103263 (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmonídeos Oeste Isla Llingua, Quinchao-X Región Nº Pert 99103040 (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,7 +7159,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Pedro Domingo Martínez Barría</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmonídeos Oeste Isla Llingua, Quinchao-X Región Nº Pert 99103040 (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmonídeos Isla Llingua, Canal Quinchao-X Región, Cód. Sernapesca 102541 (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1260182&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vermar 2 (Sol. N°200103004)</t>
+          <t>Cultivos Marinos Vermar 1 (Sol. N°200103005)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10235,7 +10235,7 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vermar 3 (Sol. N°200103017)</t>
+          <t>Cultivos Marinos Vermar 2 (Sol. N°200103004)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10283,7 +10283,7 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vermar 1 (Sol. N°200103005)</t>
+          <t>Cultivos Marinos Vermar 3 (Sol. N°200103017)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10331,7 +10331,7 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">

--- a/data/Quinchao.xlsx
+++ b/data/Quinchao.xlsx
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmonídeos Este Isla Teuquelin, X Región Nº Pert 200103263 (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmonídeos Isla Llingua, Canal Quinchao-X Región, Cód. Sernapesca 102541 (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Pedro Domingo Martínez Barría</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1260182&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmonídeos Oeste Isla Llingua, Quinchao-X Región Nº Pert 99103040 (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmonídeos Este Isla Teuquelin, X Región Nº Pert 200103263 (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,7 +7159,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Pedro Domingo Martínez Barría</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmonídeos Isla Llingua, Canal Quinchao-X Región, Cód. Sernapesca 102541 (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmonídeos Oeste Isla Llingua, Quinchao-X Región Nº Pert 99103040 (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1260182&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vermar 1 (Sol. N°200103005)</t>
+          <t>Cultivos Marinos Vermar 2 (Sol. N°200103004)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10235,7 +10235,7 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vermar 2 (Sol. N°200103004)</t>
+          <t>Cultivos Marinos Vermar 3 (Sol. N°200103017)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10283,7 +10283,7 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vermar 3 (Sol. N°200103017)</t>
+          <t>Cultivos Marinos Vermar 1 (Sol. N°200103005)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10331,7 +10331,7 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">

--- a/data/Quinchao.xlsx
+++ b/data/Quinchao.xlsx
@@ -1975,7 +1975,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmonídeos Este Isla Teuquelin, X Región Nº Pert 200103263 (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmonídeos Isla Llingua, Canal Quinchao-X Región, Cód. Sernapesca 102541 (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Pedro Domingo Martínez Barría</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1260182&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmonídeos Oeste Isla Llingua, Quinchao-X Región Nº Pert 99103040 (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmonídeos Este Isla Teuquelin, X Región Nº Pert 200103263 (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,7 +7159,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Pedro Domingo Martínez Barría</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmonídeos Isla Llingua, Canal Quinchao-X Región, Cód. Sernapesca 102541 (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmonídeos Oeste Isla Llingua, Quinchao-X Región Nº Pert 99103040 (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1260182&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vermar 1 (Sol. N°200103005)</t>
+          <t>Cultivos Marinos Vermar 2 (Sol. N°200103004)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10235,7 +10235,7 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vermar 2 (Sol. N°200103004)</t>
+          <t>Cultivos Marinos Vermar 3 (Sol. N°200103017)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10283,7 +10283,7 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vermar 3 (Sol. N°200103017)</t>
+          <t>Cultivos Marinos Vermar 1 (Sol. N°200103005)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10331,7 +10331,7 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">

--- a/data/Quinchao.xlsx
+++ b/data/Quinchao.xlsx
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmonídeos Este Isla Teuquelin, X Región Nº Pert 200103263 (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmonídeos Isla Llingua, Canal Quinchao-X Región, Cód. Sernapesca 102541 (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Pedro Domingo Martínez Barría</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1260182&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmonídeos Oeste Isla Llingua, Quinchao-X Región Nº Pert 99103040 (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmonídeos Este Isla Teuquelin, X Región Nº Pert 200103263 (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,7 +7159,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Pedro Domingo Martínez Barría</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmonídeos Isla Llingua, Canal Quinchao-X Región, Cód. Sernapesca 102541 (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmonídeos Oeste Isla Llingua, Quinchao-X Región Nº Pert 99103040 (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1260182&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7879,7 +7879,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>MANUEL EDUARDO SANCHEZ PEREZ</t>
+          <t>Empresa Pesquera Apiao S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vermar 1 (Sol. N°200103005)</t>
+          <t>Cultivos Marinos Vermar 2 (Sol. N°200103004)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10235,7 +10235,7 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vermar 2 (Sol. N°200103004)</t>
+          <t>Cultivos Marinos Vermar 3 (Sol. N°200103017)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10283,7 +10283,7 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vermar 3 (Sol. N°200103017)</t>
+          <t>Cultivos Marinos Vermar 1 (Sol. N°200103005)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10331,7 +10331,7 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">

--- a/data/Quinchao.xlsx
+++ b/data/Quinchao.xlsx
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ORIZON S.A.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmonídeos Este Isla Teuquelin, X Región Nº Pert 200103263 (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmonídeos Isla Llingua, Canal Quinchao-X Región, Cód. Sernapesca 102541 (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Pedro Domingo Martínez Barría</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1260182&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmonídeos Oeste Isla Llingua, Quinchao-X Región Nº Pert 99103040 (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmonídeos Este Isla Teuquelin, X Región Nº Pert 200103263 (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,7 +7159,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Pedro Domingo Martínez Barría</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmonídeos Isla Llingua, Canal Quinchao-X Región, Cód. Sernapesca 102541 (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmonídeos Oeste Isla Llingua, Quinchao-X Región Nº Pert 99103040 (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1260182&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7879,7 +7879,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Empresa Pesquera Apiao S.A.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vermar 1 (Sol. N°200103005)</t>
+          <t>Cultivos Marinos Vermar 2 (Sol. N°200103004)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10235,7 +10235,7 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vermar 2 (Sol. N°200103004)</t>
+          <t>Cultivos Marinos Vermar 3 (Sol. N°200103017)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10283,7 +10283,7 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vermar 3 (Sol. N°200103017)</t>
+          <t>Cultivos Marinos Vermar 1 (Sol. N°200103005)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10331,7 +10331,7 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">

--- a/data/Quinchao.xlsx
+++ b/data/Quinchao.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Quinchao.xlsx
+++ b/data/Quinchao.xlsx
@@ -9511,7 +9511,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
